--- a/XIMENA BASE DE DATOS.xlsx
+++ b/XIMENA BASE DE DATOS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{4DC7BD5D-9556-4049-9BB8-0BD47B531272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFD22A16-E5E6-43D1-9C67-2BD493517B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="67">
   <si>
     <t>Categoría</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Productos</t>
   </si>
   <si>
-    <t>Pasta</t>
-  </si>
-  <si>
-    <t>Mayonesa</t>
-  </si>
-  <si>
     <t>Tostadas</t>
   </si>
   <si>
@@ -130,12 +124,6 @@
     <t>Salchichas</t>
   </si>
   <si>
-    <t>Mermelada</t>
-  </si>
-  <si>
-    <t>Queso</t>
-  </si>
-  <si>
     <t>Valentina</t>
   </si>
   <si>
@@ -146,6 +134,105 @@
   </si>
   <si>
     <t>Bachoco</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
+  </si>
+  <si>
+    <t>Mermelada de Frea</t>
+  </si>
+  <si>
+    <t>Smuckers</t>
+  </si>
+  <si>
+    <t>Lala</t>
+  </si>
+  <si>
+    <t>Queso Oaxaca</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>400 g</t>
+  </si>
+  <si>
+    <t>510 g</t>
+  </si>
+  <si>
+    <t>500 g</t>
+  </si>
+  <si>
+    <t>250 g</t>
+  </si>
+  <si>
+    <t>30 Pzas</t>
+  </si>
+  <si>
+    <t>462 g</t>
+  </si>
+  <si>
+    <t>10.1 L</t>
+  </si>
+  <si>
+    <t>350 ml</t>
+  </si>
+  <si>
+    <t>140 g</t>
+  </si>
+  <si>
+    <t>567 g</t>
+  </si>
+  <si>
+    <t>220 g</t>
+  </si>
+  <si>
+    <t>Mayonesa con jugo de limon</t>
+  </si>
+  <si>
+    <t>650 g</t>
+  </si>
+  <si>
+    <t>550 g</t>
+  </si>
+  <si>
+    <t>Pasta No.5</t>
+  </si>
+  <si>
+    <t>Contenido Energético</t>
+  </si>
+  <si>
+    <t>170.9 kcal (725.7 kJ)</t>
+  </si>
+  <si>
+    <t>90.6 Kcal (373.8 KJ)</t>
+  </si>
+  <si>
+    <t>Ingredientes</t>
+  </si>
+  <si>
+    <t>Semola de trigo duro, vitaminas, Niacina, Vitamina B1, b2, Acido Fólico y Hierro.</t>
+  </si>
+  <si>
+    <t>Aceite Vegetal, agua, Yema de huevo y vinagre. Sal yodada, harina de mostaza y especias.</t>
+  </si>
+  <si>
+    <t>329.2 kcal (1393 KJ)</t>
+  </si>
+  <si>
+    <t>Nopal, harina de maíz nixtamalizado, goma guar, goma xantana, sal yodada y tocoferoles.</t>
+  </si>
+  <si>
+    <t>1457 kcal (6169 KJ)</t>
+  </si>
+  <si>
+    <t>Gluten, azúcar, levadura, soya, cloururo de potasio, leche, nuez, huevo, ajonjoli, acido lactico y enzimas.</t>
+  </si>
+  <si>
+    <t>90.21 kcal (382.93 KJ)</t>
+  </si>
+  <si>
+    <t>Atún aleta amarilla en hojuelas,  caldo vegetal, agua y fibra de chicharo. Sal yodada y pescado.</t>
   </si>
 </sst>
 </file>
@@ -156,7 +243,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="4" tint="-0.24994659260841701"/>
@@ -230,13 +317,6 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="Candara"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -268,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -671,6 +751,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -683,7 +924,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -732,12 +973,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -749,20 +984,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,11 +1008,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -797,19 +1023,99 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
@@ -2270,7 +2576,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="97" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2329,96 +2635,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
     </row>
     <row r="2" spans="1:50" s="10" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="26" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
-      <c r="AE2" s="26" t="s">
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AH2" s="26"/>
-      <c r="AI2" s="26" t="s">
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="26"/>
-      <c r="AK2" s="26"/>
-      <c r="AL2" s="26"/>
-      <c r="AM2" s="26" t="s">
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="26"/>
-      <c r="AQ2" s="26" t="s">
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AR2" s="26"/>
-      <c r="AS2" s="26"/>
-      <c r="AT2" s="26"/>
-      <c r="AU2" s="26" t="s">
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AV2" s="26"/>
-      <c r="AW2" s="26"/>
-      <c r="AX2" s="26"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -2427,43 +2733,29 @@
       <c r="B3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="F3" s="48"/>
       <c r="G3" s="11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="48"/>
       <c r="P3" s="11" t="s">
         <v>3</v>
       </c>
@@ -2571,31 +2863,35 @@
       </c>
     </row>
     <row r="4" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="41" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="44">
+        <v>54</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="51">
         <v>28.5</v>
       </c>
-      <c r="F4" s="18">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="22"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="18"/>
@@ -2633,27 +2929,33 @@
       <c r="AX4" s="18"/>
     </row>
     <row r="5" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="45">
+        <v>51</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="53">
         <v>88</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="23"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="13"/>
@@ -2691,27 +2993,33 @@
       <c r="AX5" s="13"/>
     </row>
     <row r="6" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="45">
+        <v>15</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="53">
         <v>37</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="23"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="67"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="13"/>
@@ -2749,27 +3057,33 @@
       <c r="AX6" s="13"/>
     </row>
     <row r="7" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="45">
+        <v>16</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="53">
         <v>48.5</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="23"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="67"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="13"/>
@@ -2807,27 +3121,33 @@
       <c r="AX7" s="13"/>
     </row>
     <row r="8" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="45">
+        <v>17</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="53">
         <v>21.5</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="23"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="13"/>
@@ -2865,27 +3185,29 @@
       <c r="AX8" s="13"/>
     </row>
     <row r="9" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="45">
+        <v>18</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="53">
         <v>16.5</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="49" t="s">
+        <v>47</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="23"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="13"/>
@@ -2923,27 +3245,29 @@
       <c r="AX9" s="13"/>
     </row>
     <row r="10" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="45">
-        <v>36.5</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="53">
+        <v>40</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="23"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="67"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="19"/>
       <c r="R10" s="13"/>
@@ -2981,27 +3305,29 @@
       <c r="AX10" s="13"/>
     </row>
     <row r="11" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="49">
+        <v>19</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="55">
         <v>91</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="24"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="50" t="s">
+        <v>45</v>
+      </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="24"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="70"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="14"/>
@@ -3039,27 +3365,29 @@
       <c r="AX11" s="14"/>
     </row>
     <row r="12" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52">
+        <v>27</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="57">
         <v>95.5</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="25"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="73"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
       <c r="R12" s="15"/>
@@ -3097,23 +3425,29 @@
       <c r="AX12" s="15"/>
     </row>
     <row r="13" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="23"/>
+        <v>28</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="53">
+        <v>33</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="67"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="13"/>
@@ -3151,23 +3485,29 @@
       <c r="AX13" s="13"/>
     </row>
     <row r="14" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="23"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="53">
+        <v>56</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="49" t="s">
+        <v>42</v>
+      </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="23"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
       <c r="P14" s="19"/>
       <c r="Q14" s="19"/>
       <c r="R14" s="13"/>
@@ -3205,23 +3545,29 @@
       <c r="AX14" s="13"/>
     </row>
     <row r="15" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="23"/>
+        <v>35</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="53">
+        <v>75</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="49" t="s">
+        <v>41</v>
+      </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="23"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="13"/>
@@ -3259,23 +3605,29 @@
       <c r="AX15" s="13"/>
     </row>
     <row r="16" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="55">
+        <v>79</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="24"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="14"/>
@@ -3313,7 +3665,7 @@
       <c r="AX16" s="14"/>
     </row>
     <row r="17" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="9"/>
       <c r="C17" s="25"/>
       <c r="D17" s="6"/>
@@ -3365,7 +3717,7 @@
       <c r="AX17" s="15"/>
     </row>
     <row r="18" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="7"/>
       <c r="C18" s="23"/>
       <c r="D18" s="19"/>
@@ -3417,7 +3769,7 @@
       <c r="AX18" s="13"/>
     </row>
     <row r="19" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="7"/>
       <c r="C19" s="23"/>
       <c r="D19" s="4"/>
@@ -3469,7 +3821,7 @@
       <c r="AX19" s="13"/>
     </row>
     <row r="20" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="42"/>
       <c r="B20" s="7"/>
       <c r="C20" s="23"/>
       <c r="D20" s="19"/>
@@ -3521,7 +3873,7 @@
       <c r="AX20" s="13"/>
     </row>
     <row r="21" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="8"/>
       <c r="C21" s="24"/>
       <c r="D21" s="5"/>
@@ -3573,7 +3925,7 @@
       <c r="AX21" s="14"/>
     </row>
     <row r="22" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="20"/>
@@ -3625,7 +3977,7 @@
       <c r="AX22" s="15"/>
     </row>
     <row r="23" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="7"/>
       <c r="C23" s="23"/>
       <c r="D23" s="4"/>
@@ -3677,7 +4029,7 @@
       <c r="AX23" s="13"/>
     </row>
     <row r="24" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="7"/>
       <c r="C24" s="23"/>
       <c r="D24" s="19"/>
@@ -3729,7 +4081,7 @@
       <c r="AX24" s="13"/>
     </row>
     <row r="25" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="8"/>
       <c r="C25" s="24"/>
       <c r="D25" s="5"/>
@@ -3781,7 +4133,7 @@
       <c r="AX25" s="14"/>
     </row>
     <row r="26" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="9"/>
       <c r="C26" s="25"/>
       <c r="D26" s="20"/>
@@ -3833,7 +4185,7 @@
       <c r="AX26" s="15"/>
     </row>
     <row r="27" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="7"/>
       <c r="C27" s="23"/>
       <c r="D27" s="4"/>
@@ -3885,7 +4237,7 @@
       <c r="AX27" s="13"/>
     </row>
     <row r="28" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="42"/>
       <c r="B28" s="7"/>
       <c r="C28" s="23"/>
       <c r="D28" s="19"/>
@@ -3937,7 +4289,7 @@
       <c r="AX28" s="13"/>
     </row>
     <row r="29" spans="1:50" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="8"/>
       <c r="C29" s="24"/>
       <c r="D29" s="5"/>
@@ -3989,15 +4341,34 @@
       <c r="AX29" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C7:D7"/>
+  <mergeCells count="51">
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="I10:O10"/>
+    <mergeCell ref="I11:O11"/>
+    <mergeCell ref="I12:O12"/>
+    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="I6:O6"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="I8:O8"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:A29"/>
     <mergeCell ref="AU2:AX2"/>
@@ -4009,8 +4380,21 @@
     <mergeCell ref="C2:Z2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
-  <conditionalFormatting sqref="B14:AX29 B13:G13 I13:AX13 B4:C12 E4:AX12">
+  <conditionalFormatting sqref="B17:AX29 I13 B4:C16 G13 E4:E16 G4:I12 G14:I16 P4:AX16">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
@@ -4043,45 +4427,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>A4 F5:F11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="329" id="{BEE1BF5B-6068-43CA-BF0C-920D460769C8}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="326" id="{224AC565-2B3E-4CFD-8218-589954CCB15D}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>F12:F16</xm:sqref>
+          <xm:sqref>A4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="325" id="{1C66D2CC-2C3F-4A06-BB56-3560057AC389}">
@@ -4122,63 +4468,6 @@
           <xm:sqref>F22:F25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{D6666CC3-39BA-4422-8898-443F867AD256}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N5:N11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{8E401574-0563-4865-83A2-457C8EA3E3D3}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{41395B25-AA65-485D-879A-24A444D4B27A}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N12:N16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="65" id="{0C15EC84-6DF7-4787-A2F5-01EFFFCB9F48}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -5107,7 +5396,7 @@
               <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>J4:J29</xm:sqref>
+          <xm:sqref>J17:J29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="347" id="{64765A7C-1C20-4BAA-9B14-B125EB6B9336}">
@@ -5298,63 +5587,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>AX26:AX29</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{3977EB53-C06E-4A45-848B-526710DDEDBF}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J5:J11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{8E1C78AA-AE50-4A45-B814-F017BFACD397}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{9FEC8A00-5D36-42F1-8086-F83125B72109}">
-            <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>J12:J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{B2E08D36-2C14-41F7-91AE-1904FD45461A}">
@@ -5429,6 +5661,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEEA25CC0A0AC24199CDC46C25B8B0BC" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e3b47856d4cf355c0dacb39e1084d14f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="6dc4bcd6-49db-4c07-9060-8acfc67cef9f" xmlns:ns3="fb0879af-3eba-417a-a55a-ffe6dcd6ca77" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a845a615265fdb1f7b12cc65ac20ecbd" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5636,15 +5877,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE031662-A8E1-4255-8BCA-624CA3D3F56C}">
   <ds:schemaRefs>
@@ -5664,6 +5896,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D060168-8542-4A7B-835D-08EE8B55B565}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E4173E-BAE6-4AC3-81F0-C63787F54D04}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5681,12 +5921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D060168-8542-4A7B-835D-08EE8B55B565}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>